--- a/html/Alle systemer (Samlet liste)_excel.XLSX
+++ b/html/Alle systemer (Samlet liste)_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07B6B97-A439-48CA-B883-1A3C8F92E788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E16A701-6E3E-48F7-9525-9DEDAA99A3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Alle_systemer__Samlet_liste_">'Opdateret d. 12-05-2025'!$A$1:$G$2652</definedName>
+    <definedName name="Alle_systemer__Samlet_liste_">'Opdateret d. 16-05-2025'!$A$1:$G$2652</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -547,7 +547,7 @@
     <t>CareCommunication</t>
   </si>
   <si>
-    <t>CareCommunication (4.0.0)</t>
+    <t>CareCommunication (4.0)</t>
   </si>
   <si>
     <t>Acknowledgement</t>
@@ -19268,7 +19268,7 @@
         <v>15</v>
       </c>
       <c r="G749" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.25">
@@ -19521,7 +19521,7 @@
         <v>11</v>
       </c>
       <c r="G760" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.25">
@@ -19567,7 +19567,7 @@
         <v>11</v>
       </c>
       <c r="G762" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.25">
@@ -19590,7 +19590,7 @@
         <v>15</v>
       </c>
       <c r="G763" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.25">

--- a/html/Alle systemer (Samlet liste)_excel.XLSX
+++ b/html/Alle systemer (Samlet liste)_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF373CD-DD97-4862-8AA5-0244C6783541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B991A9-6FE0-4B0D-85A5-8CB2CD65443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
